--- a/WidthDepth/WidthDepth_summary.xlsx
+++ b/WidthDepth/WidthDepth_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/WidthDepth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="8_{46B7ED26-4D70-4EFB-9E18-70F8131D3C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{742FC5E1-0EF3-42BC-99B1-F3CEC7E8C356}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="8_{46B7ED26-4D70-4EFB-9E18-70F8131D3C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9796B2E-6545-4BFE-B7F4-F7CD1A7F7CB2}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="50" windowWidth="14070" windowHeight="9730" xr2:uid="{1D61F3A9-C705-4B7A-9C2E-7B15E4CC5E79}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="16600" windowHeight="9730" xr2:uid="{1D61F3A9-C705-4B7A-9C2E-7B15E4CC5E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="12">
   <si>
     <t>distance upstream (m)</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>stn04</t>
+  </si>
+  <si>
+    <t>stn06</t>
   </si>
 </sst>
 </file>
@@ -831,10 +834,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$115</c:f>
+              <c:f>Sheet1!$F$2:$F$159</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="158"/>
                 <c:pt idx="0">
                   <c:v>12.8</c:v>
                 </c:pt>
@@ -1176,16 +1179,148 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>16.571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>32.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>38.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>17.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>11.166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>32.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>26.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>28.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>23.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>37.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>38.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>34.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>28.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>57.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>35.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>81.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>27.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>45.833333333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$115</c:f>
+              <c:f>Sheet1!$G$2:$G$159</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="158"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1527,6 +1662,138 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>53.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1725,6 +1992,2476 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="158"/>
+                <c:pt idx="0">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>16.571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>32.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>38.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>17.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>11.166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>32.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>26.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>28.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>23.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>37.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>38.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>34.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>28.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>57.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>35.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>81.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>27.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>45.833333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="158"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>53.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E65-4AD8-9BE5-E972893CED87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1657805328"/>
+        <c:axId val="1657805808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1657805328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1657805808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1657805808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1657805328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="158"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="158"/>
+                <c:pt idx="0">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>16.571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>32.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>38.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>17.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>11.166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>32.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>26.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>28.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>23.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>37.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>38.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>34.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>28.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>57.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>35.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>81.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>27.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>45.833333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58DE-48FE-B5D4-A9522C196F6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2019359264"/>
+        <c:axId val="2019358784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2019359264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2019358784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2019358784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2019359264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1805,6 +4542,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2837,20 +5654,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>531861</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>140084</xdr:rowOff>
+      <xdr:colOff>300952</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>168948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>230525</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>121034</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605752</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>149899</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2911,7 +6760,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>549371</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>29441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551FF384-E182-8FB4-C448-690CEF9F05D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>557069</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>279978</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>67925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC26F60-F54D-BAEB-CAE7-9960629EC42A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3211,10 +7136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B152B2B0-FCFF-4246-B583-60FEABDA03B9}">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="66" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5867,13 +9792,1017 @@
         <v>14</v>
       </c>
     </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>44718</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>57</v>
+      </c>
+      <c r="F116">
+        <v>23.6</v>
+      </c>
+      <c r="G116">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
+        <v>44718</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D117">
+        <v>10</v>
+      </c>
+      <c r="E117">
+        <v>60</v>
+      </c>
+      <c r="F117">
+        <v>30.75</v>
+      </c>
+      <c r="G117">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1">
+        <v>44718</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D118">
+        <v>20</v>
+      </c>
+      <c r="E118">
+        <v>50</v>
+      </c>
+      <c r="F118">
+        <v>10.8</v>
+      </c>
+      <c r="G118">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1">
+        <v>44718</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D119">
+        <v>30</v>
+      </c>
+      <c r="E119">
+        <v>35</v>
+      </c>
+      <c r="F119">
+        <v>5.6</v>
+      </c>
+      <c r="G119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1">
+        <v>44718</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D120">
+        <v>40</v>
+      </c>
+      <c r="E120">
+        <v>65</v>
+      </c>
+      <c r="F120">
+        <v>16.571428571428573</v>
+      </c>
+      <c r="G120">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1">
+        <v>44718</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D121">
+        <v>50</v>
+      </c>
+      <c r="E121">
+        <v>35</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1">
+        <v>44718</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D122">
+        <v>60</v>
+      </c>
+      <c r="E122">
+        <v>30</v>
+      </c>
+      <c r="F122">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="G122">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1">
+        <v>44718</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D123">
+        <v>70</v>
+      </c>
+      <c r="E123">
+        <v>50</v>
+      </c>
+      <c r="F123">
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="G123">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1">
+        <v>44718</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D124">
+        <v>80</v>
+      </c>
+      <c r="E124">
+        <v>65</v>
+      </c>
+      <c r="F124">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G124">
+        <v>7.5</v>
+      </c>
+    </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B125" s="1"/>
-      <c r="C125" s="2"/>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B138" s="1"/>
-      <c r="C138" s="2"/>
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1">
+        <v>44718</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D125">
+        <v>90</v>
+      </c>
+      <c r="E125">
+        <v>37</v>
+      </c>
+      <c r="F125">
+        <v>3.2</v>
+      </c>
+      <c r="G125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1">
+        <v>44718</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D126">
+        <v>100</v>
+      </c>
+      <c r="E126">
+        <v>55</v>
+      </c>
+      <c r="F126">
+        <v>30.4</v>
+      </c>
+      <c r="G126">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1">
+        <v>44748</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>55</v>
+      </c>
+      <c r="F127">
+        <v>32.166666666666664</v>
+      </c>
+      <c r="G127">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1">
+        <v>44748</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128">
+        <v>45</v>
+      </c>
+      <c r="F128">
+        <v>31.2</v>
+      </c>
+      <c r="G128">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="1">
+        <v>44748</v>
+      </c>
+      <c r="C129" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D129">
+        <v>10</v>
+      </c>
+      <c r="E129">
+        <v>45</v>
+      </c>
+      <c r="F129">
+        <v>38.833333333333336</v>
+      </c>
+      <c r="G129">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="1">
+        <v>44748</v>
+      </c>
+      <c r="C130" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D130">
+        <v>15</v>
+      </c>
+      <c r="E130">
+        <v>60</v>
+      </c>
+      <c r="F130">
+        <v>10.5</v>
+      </c>
+      <c r="G130">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="1">
+        <v>44748</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D131">
+        <v>20</v>
+      </c>
+      <c r="E131">
+        <v>60</v>
+      </c>
+      <c r="F131">
+        <v>13.4</v>
+      </c>
+      <c r="G131">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="1">
+        <v>44748</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D132">
+        <v>25</v>
+      </c>
+      <c r="E132">
+        <v>55</v>
+      </c>
+      <c r="F132">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="G132">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="1">
+        <v>44748</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D133">
+        <v>30</v>
+      </c>
+      <c r="E133">
+        <v>50</v>
+      </c>
+      <c r="F133">
+        <v>9.6</v>
+      </c>
+      <c r="G133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="1">
+        <v>44748</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D134">
+        <v>35</v>
+      </c>
+      <c r="E134">
+        <v>60</v>
+      </c>
+      <c r="F134">
+        <v>25.6</v>
+      </c>
+      <c r="G134">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="1">
+        <v>44748</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D135">
+        <v>40</v>
+      </c>
+      <c r="E135">
+        <v>65</v>
+      </c>
+      <c r="F135">
+        <v>27.6</v>
+      </c>
+      <c r="G135">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="1">
+        <v>44748</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D136">
+        <v>45</v>
+      </c>
+      <c r="E136">
+        <v>75</v>
+      </c>
+      <c r="F136">
+        <v>11.166666666666666</v>
+      </c>
+      <c r="G136">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="1">
+        <v>44748</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D137">
+        <v>50</v>
+      </c>
+      <c r="E137">
+        <v>55</v>
+      </c>
+      <c r="F137">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="G137">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="1">
+        <v>44743</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0.45902777777777776</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>245</v>
+      </c>
+      <c r="F138">
+        <v>32.857142857142854</v>
+      </c>
+      <c r="G138">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" s="1">
+        <v>44743</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0.45902777777777776</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139">
+        <v>200</v>
+      </c>
+      <c r="F139">
+        <v>26.333333333333332</v>
+      </c>
+      <c r="G139">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="1">
+        <v>44743</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0.45902777777777776</v>
+      </c>
+      <c r="D140">
+        <v>10</v>
+      </c>
+      <c r="E140">
+        <v>120</v>
+      </c>
+      <c r="F140">
+        <v>59.6</v>
+      </c>
+      <c r="G140">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" s="1">
+        <v>44743</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0.45902777777777776</v>
+      </c>
+      <c r="D141">
+        <v>15</v>
+      </c>
+      <c r="E141">
+        <v>160</v>
+      </c>
+      <c r="F141">
+        <v>47.6</v>
+      </c>
+      <c r="G141">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" s="1">
+        <v>44743</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0.45902777777777776</v>
+      </c>
+      <c r="D142">
+        <v>20</v>
+      </c>
+      <c r="E142">
+        <v>110</v>
+      </c>
+      <c r="F142">
+        <v>25.6</v>
+      </c>
+      <c r="G142">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="1">
+        <v>44743</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0.45902777777777776</v>
+      </c>
+      <c r="D143">
+        <v>25</v>
+      </c>
+      <c r="E143">
+        <v>105</v>
+      </c>
+      <c r="F143">
+        <v>41.6</v>
+      </c>
+      <c r="G143">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="1">
+        <v>44743</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0.45902777777777776</v>
+      </c>
+      <c r="D144">
+        <v>30</v>
+      </c>
+      <c r="E144">
+        <v>140</v>
+      </c>
+      <c r="F144">
+        <v>28.166666666666668</v>
+      </c>
+      <c r="G144">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="1">
+        <v>44743</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0.45902777777777776</v>
+      </c>
+      <c r="D145">
+        <v>35</v>
+      </c>
+      <c r="E145">
+        <v>40</v>
+      </c>
+      <c r="F145">
+        <v>43.2</v>
+      </c>
+      <c r="G145">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" s="1">
+        <v>44743</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0.45902777777777776</v>
+      </c>
+      <c r="D146">
+        <v>40</v>
+      </c>
+      <c r="E146">
+        <v>110</v>
+      </c>
+      <c r="F146">
+        <v>23.166666666666668</v>
+      </c>
+      <c r="G146">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" s="1">
+        <v>44743</v>
+      </c>
+      <c r="C147" s="2">
+        <v>0.45902777777777776</v>
+      </c>
+      <c r="D147">
+        <v>45</v>
+      </c>
+      <c r="E147">
+        <v>120</v>
+      </c>
+      <c r="F147">
+        <v>30.5</v>
+      </c>
+      <c r="G147">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" s="1">
+        <v>44743</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0.45902777777777776</v>
+      </c>
+      <c r="D148">
+        <v>50</v>
+      </c>
+      <c r="E148">
+        <v>135</v>
+      </c>
+      <c r="F148">
+        <v>37.428571428571431</v>
+      </c>
+      <c r="G148">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="1">
+        <v>44768</v>
+      </c>
+      <c r="C149" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>195</v>
+      </c>
+      <c r="F149">
+        <v>38.333333333333336</v>
+      </c>
+      <c r="G149">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" s="1">
+        <v>44768</v>
+      </c>
+      <c r="C150" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D150">
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <v>165</v>
+      </c>
+      <c r="F150">
+        <v>34.333333333333336</v>
+      </c>
+      <c r="G150">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" s="1">
+        <v>44768</v>
+      </c>
+      <c r="C151" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D151">
+        <v>10</v>
+      </c>
+      <c r="E151">
+        <v>140</v>
+      </c>
+      <c r="F151">
+        <v>39</v>
+      </c>
+      <c r="G151">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" s="1">
+        <v>44768</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D152">
+        <v>15</v>
+      </c>
+      <c r="E152">
+        <v>185</v>
+      </c>
+      <c r="F152">
+        <v>30.8</v>
+      </c>
+      <c r="G152">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" s="1">
+        <v>44768</v>
+      </c>
+      <c r="C153" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D153">
+        <v>20</v>
+      </c>
+      <c r="E153">
+        <v>130</v>
+      </c>
+      <c r="F153">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="G153">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="1">
+        <v>44768</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D154">
+        <v>25</v>
+      </c>
+      <c r="E154">
+        <v>115</v>
+      </c>
+      <c r="F154">
+        <v>57.333333333333336</v>
+      </c>
+      <c r="G154">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="1">
+        <v>44768</v>
+      </c>
+      <c r="C155" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D155">
+        <v>30</v>
+      </c>
+      <c r="E155">
+        <v>205</v>
+      </c>
+      <c r="F155">
+        <v>35.666666666666664</v>
+      </c>
+      <c r="G155">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" s="1">
+        <v>44768</v>
+      </c>
+      <c r="C156" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D156">
+        <v>35</v>
+      </c>
+      <c r="E156">
+        <v>140</v>
+      </c>
+      <c r="F156">
+        <v>81.166666666666671</v>
+      </c>
+      <c r="G156">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" s="1">
+        <v>44768</v>
+      </c>
+      <c r="C157" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D157">
+        <v>40</v>
+      </c>
+      <c r="E157">
+        <v>115</v>
+      </c>
+      <c r="F157">
+        <v>27.833333333333332</v>
+      </c>
+      <c r="G157">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="1">
+        <v>44768</v>
+      </c>
+      <c r="C158" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D158">
+        <v>45</v>
+      </c>
+      <c r="E158">
+        <v>95</v>
+      </c>
+      <c r="F158">
+        <v>43.666666666666664</v>
+      </c>
+      <c r="G158">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" s="1">
+        <v>44768</v>
+      </c>
+      <c r="C159" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D159">
+        <v>50</v>
+      </c>
+      <c r="E159">
+        <v>120</v>
+      </c>
+      <c r="F159">
+        <v>45.833333333333336</v>
+      </c>
+      <c r="G159">
+        <v>53.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
